--- a/Project104_N. B. Simmons(2008).xlsx
+++ b/Project104_N. B. Simmons(2008).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137049E7-94F9-D343-9DB0-149856168FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA52F3DF-D3E4-F246-A20F-654FC3D9A348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="0" windowWidth="17640" windowHeight="18000" xr2:uid="{A97BDDDE-45CE-D042-B9CD-AFF9B3995B16}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A97BDDDE-45CE-D042-B9CD-AFF9B3995B16}"/>
   </bookViews>
   <sheets>
     <sheet name="Project104" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="223">
   <si>
     <t>Charlabels</t>
   </si>
@@ -690,6 +690,21 @@
   </si>
   <si>
     <t>NT3;0=11;1=12;2=13;3=0-</t>
+  </si>
+  <si>
+    <t>NT?;0=11;1=12;2=13;3=0-</t>
+  </si>
+  <si>
+    <t>NT?;0=0-;1=11;2=12;3=13;4=14;5=15</t>
+  </si>
+  <si>
+    <t>NT?;0=11;1=12;2=13;3=14;4=0-</t>
+  </si>
+  <si>
+    <t>NT?;0=11;1=12;2=0-</t>
+  </si>
+  <si>
+    <t>NT?0=0-;1=11;2=12;3=13</t>
   </si>
 </sst>
 </file>
@@ -746,14 +761,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,16 +789,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>20818</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>71618</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>166553</xdr:rowOff>
+      <xdr:rowOff>64954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>791148</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>127518</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>743949</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -807,8 +821,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10451474" y="437209"/>
-          <a:ext cx="11596559" cy="7247850"/>
+          <a:off x="10570285" y="352821"/>
+          <a:ext cx="10629131" cy="6505180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1139,24 +1153,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E5AC40-EB9D-004C-9D4A-CEAFE2E358E8}">
   <dimension ref="A1:C208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="1" max="1" width="83.33203125" customWidth="1"/>
     <col min="2" max="3" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1172,13 +1186,13 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1186,32 +1200,28 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="B4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="B5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1230,10 +1240,10 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1241,21 +1251,21 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1263,10 +1273,10 @@
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1274,10 +1284,10 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1285,18 +1295,16 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="B13" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C14" t="s">
@@ -1307,7 +1315,7 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C15" t="s">
@@ -1318,21 +1326,18 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" t="s">
-        <v>211</v>
+      <c r="B16" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1340,7 +1345,7 @@
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C18" t="s">
@@ -1351,10 +1356,10 @@
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1362,10 +1367,10 @@
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1373,10 +1378,10 @@
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1384,10 +1389,10 @@
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1395,21 +1400,21 @@
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1417,21 +1422,19 @@
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="B25" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1439,10 +1442,10 @@
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1450,10 +1453,10 @@
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1461,10 +1464,10 @@
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1472,10 +1475,10 @@
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1483,21 +1486,21 @@
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="B32" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1505,10 +1508,10 @@
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1516,7 +1519,7 @@
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C34" t="s">
@@ -1527,10 +1530,10 @@
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1538,10 +1541,10 @@
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1549,10 +1552,10 @@
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1560,10 +1563,10 @@
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1571,10 +1574,10 @@
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1582,10 +1585,10 @@
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1593,10 +1596,10 @@
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1604,10 +1607,10 @@
       <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1615,10 +1618,10 @@
       <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1626,7 +1629,7 @@
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C44" t="s">
@@ -1637,7 +1640,7 @@
       <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C45" t="s">
@@ -1648,10 +1651,10 @@
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1659,10 +1662,10 @@
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1670,10 +1673,10 @@
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1681,10 +1684,10 @@
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1692,10 +1695,10 @@
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="B50" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1703,10 +1706,10 @@
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1714,10 +1717,10 @@
       <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1725,10 +1728,10 @@
       <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1736,10 +1739,10 @@
       <c r="A54" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1747,10 +1750,10 @@
       <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="B55" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1758,10 +1761,10 @@
       <c r="A56" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1769,21 +1772,21 @@
       <c r="A57" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="B57" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="B58" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1791,10 +1794,10 @@
       <c r="A59" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1802,10 +1805,10 @@
       <c r="A60" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1813,32 +1816,32 @@
       <c r="A61" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="A62" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C62" s="5" t="s">
+      <c r="B62" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="A63" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C63" s="5" t="s">
+      <c r="B63" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1846,10 +1849,10 @@
       <c r="A64" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="B64" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1857,21 +1860,21 @@
       <c r="A65" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C66" s="5" t="s">
+      <c r="B66" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1879,7 +1882,7 @@
       <c r="A67" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C67" t="s">
@@ -1890,10 +1893,10 @@
       <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="B68" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1901,21 +1904,19 @@
       <c r="A69" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="B69" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="B70" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1923,10 +1924,10 @@
       <c r="A71" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="B71" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1934,10 +1935,10 @@
       <c r="A72" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="B72" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1945,10 +1946,10 @@
       <c r="A73" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="B73" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1956,30 +1957,29 @@
       <c r="A74" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="B74" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+      <c r="A75" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C75" s="4"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B76" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1987,10 +1987,10 @@
       <c r="A77" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="B77" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1998,10 +1998,10 @@
       <c r="A78" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="B78" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2009,10 +2009,10 @@
       <c r="A79" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="B79" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2020,59 +2020,57 @@
       <c r="A80" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="B80" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+      <c r="A81" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C81" s="4"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+      <c r="A82" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C82" s="4"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C83" s="3" t="s">
+      <c r="B83" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
+      <c r="A84" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C84" s="6"/>
+      <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C85" s="3" t="s">
+      <c r="B85" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2080,10 +2078,10 @@
       <c r="A86" t="s">
         <v>87</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C86" s="3" t="s">
+      <c r="B86" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2091,10 +2089,10 @@
       <c r="A87" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C87" s="3" t="s">
+      <c r="B87" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2102,21 +2100,21 @@
       <c r="A88" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C88" s="3" t="s">
+      <c r="B88" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
+      <c r="A89" t="s">
         <v>90</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C89" s="5" t="s">
+      <c r="B89" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2124,10 +2122,10 @@
       <c r="A90" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="B90" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2135,10 +2133,10 @@
       <c r="A91" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C91" s="3" t="s">
+      <c r="B91" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2146,30 +2144,29 @@
       <c r="A92" t="s">
         <v>93</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C92" s="3" t="s">
+      <c r="B92" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
+      <c r="A93" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" t="s">
         <v>215</v>
       </c>
-      <c r="C93" s="4"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>95</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C94" s="3" t="s">
+      <c r="B94" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2177,10 +2174,10 @@
       <c r="A95" t="s">
         <v>96</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C95" s="3" t="s">
+      <c r="B95" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2188,21 +2185,21 @@
       <c r="A96" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C96" s="3" t="s">
+      <c r="B96" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
+      <c r="A97" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C97" s="5" t="s">
+      <c r="B97" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2210,10 +2207,10 @@
       <c r="A98" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C98" s="3" t="s">
+      <c r="B98" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2221,10 +2218,10 @@
       <c r="A99" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C99" s="3" t="s">
+      <c r="B99" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2232,10 +2229,10 @@
       <c r="A100" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C100" s="3" t="s">
+      <c r="B100" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2243,10 +2240,10 @@
       <c r="A101" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C101" s="3" t="s">
+      <c r="B101" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2254,10 +2251,10 @@
       <c r="A102" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C102" s="3" t="s">
+      <c r="B102" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2265,10 +2262,10 @@
       <c r="A103" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C103" s="3" t="s">
+      <c r="B103" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2276,10 +2273,10 @@
       <c r="A104" t="s">
         <v>105</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C104" s="3" t="s">
+      <c r="B104" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2287,10 +2284,10 @@
       <c r="A105" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C105" s="2" t="s">
+      <c r="B105" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2298,10 +2295,10 @@
       <c r="A106" t="s">
         <v>107</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C106" s="2" t="s">
+      <c r="B106" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2309,10 +2306,10 @@
       <c r="A107" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C107" s="3" t="s">
+      <c r="B107" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2320,10 +2317,10 @@
       <c r="A108" t="s">
         <v>109</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C108" s="3" t="s">
+      <c r="B108" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2331,10 +2328,10 @@
       <c r="A109" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C109" s="3" t="s">
+      <c r="B109" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2342,10 +2339,10 @@
       <c r="A110" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C110" s="3" t="s">
+      <c r="B110" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2353,10 +2350,10 @@
       <c r="A111" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C111" s="3" t="s">
+      <c r="B111" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2364,10 +2361,10 @@
       <c r="A112" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C112" s="3" t="s">
+      <c r="B112" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2375,10 +2372,10 @@
       <c r="A113" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C113" s="3" t="s">
+      <c r="B113" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2386,10 +2383,10 @@
       <c r="A114" t="s">
         <v>115</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C114" s="3" t="s">
+      <c r="B114" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2397,10 +2394,10 @@
       <c r="A115" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C115" s="3" t="s">
+      <c r="B115" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2408,10 +2405,10 @@
       <c r="A116" t="s">
         <v>117</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C116" s="3" t="s">
+      <c r="B116" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2419,10 +2416,10 @@
       <c r="A117" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C117" s="3" t="s">
+      <c r="B117" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2430,10 +2427,10 @@
       <c r="A118" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C118" s="3" t="s">
+      <c r="B118" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2441,10 +2438,10 @@
       <c r="A119" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C119" s="3" t="s">
+      <c r="B119" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2452,10 +2449,10 @@
       <c r="A120" t="s">
         <v>121</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C120" s="3" t="s">
+      <c r="B120" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2463,10 +2460,10 @@
       <c r="A121" t="s">
         <v>122</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C121" s="3" t="s">
+      <c r="B121" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2474,30 +2471,29 @@
       <c r="A122" t="s">
         <v>123</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C122" s="3" t="s">
+      <c r="B122" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
+      <c r="A123" t="s">
         <v>124</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" t="s">
         <v>217</v>
       </c>
-      <c r="C123" s="4"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>125</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C124" s="3" t="s">
+      <c r="B124" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2505,10 +2501,10 @@
       <c r="A125" t="s">
         <v>126</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C125" s="3" t="s">
+      <c r="B125" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2516,10 +2512,10 @@
       <c r="A126" t="s">
         <v>127</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C126" s="3" t="s">
+      <c r="B126" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2527,10 +2523,10 @@
       <c r="A127" t="s">
         <v>128</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C127" s="3" t="s">
+      <c r="B127" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2538,10 +2534,10 @@
       <c r="A128" t="s">
         <v>129</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C128" s="3" t="s">
+      <c r="B128" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2549,10 +2545,10 @@
       <c r="A129" t="s">
         <v>130</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C129" s="3" t="s">
+      <c r="B129" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2560,10 +2556,10 @@
       <c r="A130" t="s">
         <v>131</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C130" s="3" t="s">
+      <c r="B130" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2571,10 +2567,10 @@
       <c r="A131" t="s">
         <v>132</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C131" s="3" t="s">
+      <c r="B131" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2582,10 +2578,10 @@
       <c r="A132" t="s">
         <v>133</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C132" s="3" t="s">
+      <c r="B132" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2593,10 +2589,10 @@
       <c r="A133" t="s">
         <v>134</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C133" s="3" t="s">
+      <c r="B133" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2604,10 +2600,10 @@
       <c r="A134" t="s">
         <v>135</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C134" s="3" t="s">
+      <c r="B134" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2615,43 +2611,43 @@
       <c r="A135" t="s">
         <v>136</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C135" s="3" t="s">
+      <c r="B135" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
+      <c r="A136" t="s">
         <v>137</v>
       </c>
-      <c r="B136" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C136" s="5" t="s">
+      <c r="B136" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
+      <c r="A137" t="s">
         <v>138</v>
       </c>
-      <c r="B137" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C137" s="5" t="s">
+      <c r="B137" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
+      <c r="A138" t="s">
         <v>139</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C138" s="5" t="s">
+      <c r="B138" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2659,7 +2655,7 @@
       <c r="A139" t="s">
         <v>140</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C139" t="s">
@@ -2670,7 +2666,7 @@
       <c r="A140" t="s">
         <v>141</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C140" t="s">
@@ -2681,7 +2677,7 @@
       <c r="A141" t="s">
         <v>142</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C141" t="s">
@@ -2692,10 +2688,10 @@
       <c r="A142" t="s">
         <v>143</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C142" s="3" t="s">
+      <c r="B142" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2703,10 +2699,10 @@
       <c r="A143" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C143" s="3" t="s">
+      <c r="B143" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2714,10 +2710,10 @@
       <c r="A144" t="s">
         <v>145</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C144" s="3" t="s">
+      <c r="B144" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2725,10 +2721,10 @@
       <c r="A145" t="s">
         <v>146</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C145" s="3" t="s">
+      <c r="B145" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2736,10 +2732,10 @@
       <c r="A146" t="s">
         <v>147</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C146" s="3" t="s">
+      <c r="B146" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2747,10 +2743,10 @@
       <c r="A147" t="s">
         <v>148</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C147" s="3" t="s">
+      <c r="B147" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2758,21 +2754,19 @@
       <c r="A148" t="s">
         <v>149</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="B148" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C148" s="2"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>150</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C149" s="3" t="s">
+      <c r="B149" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2780,43 +2774,43 @@
       <c r="A150" t="s">
         <v>151</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C150" s="3" t="s">
+      <c r="B150" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
+      <c r="A151" t="s">
         <v>152</v>
       </c>
-      <c r="B151" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C151" s="5" t="s">
+      <c r="B151" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
+      <c r="A152" t="s">
         <v>153</v>
       </c>
-      <c r="B152" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C152" s="5" t="s">
+      <c r="B152" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
+      <c r="A153" t="s">
         <v>154</v>
       </c>
-      <c r="B153" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C153" s="5" t="s">
+      <c r="B153" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2824,10 +2818,10 @@
       <c r="A154" t="s">
         <v>155</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C154" s="3" t="s">
+      <c r="B154" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2835,10 +2829,10 @@
       <c r="A155" t="s">
         <v>156</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C155" s="3" t="s">
+      <c r="B155" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2846,10 +2840,10 @@
       <c r="A156" t="s">
         <v>157</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C156" s="3" t="s">
+      <c r="B156" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2857,10 +2851,10 @@
       <c r="A157" t="s">
         <v>158</v>
       </c>
-      <c r="B157" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C157" s="3" t="s">
+      <c r="B157" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2868,10 +2862,10 @@
       <c r="A158" t="s">
         <v>159</v>
       </c>
-      <c r="B158" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C158" s="3" t="s">
+      <c r="B158" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2879,10 +2873,10 @@
       <c r="A159" t="s">
         <v>160</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C159" s="3" t="s">
+      <c r="B159" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2890,10 +2884,10 @@
       <c r="A160" t="s">
         <v>161</v>
       </c>
-      <c r="B160" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C160" s="3" t="s">
+      <c r="B160" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2901,10 +2895,10 @@
       <c r="A161" t="s">
         <v>162</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C161" s="3" t="s">
+      <c r="B161" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2912,32 +2906,32 @@
       <c r="A162" t="s">
         <v>163</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C162" s="3" t="s">
+      <c r="B162" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="4" t="s">
+      <c r="A163" t="s">
         <v>164</v>
       </c>
-      <c r="B163" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C163" s="6" t="s">
+      <c r="B163" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
+      <c r="A164" t="s">
         <v>165</v>
       </c>
-      <c r="B164" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C164" s="5" t="s">
+      <c r="B164" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2945,10 +2939,10 @@
       <c r="A165" t="s">
         <v>166</v>
       </c>
-      <c r="B165" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C165" s="3" t="s">
+      <c r="B165" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2956,21 +2950,19 @@
       <c r="A166" t="s">
         <v>167</v>
       </c>
-      <c r="B166" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="B166" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C166" s="2"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>168</v>
       </c>
-      <c r="B167" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C167" s="3" t="s">
+      <c r="B167" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2978,10 +2970,10 @@
       <c r="A168" t="s">
         <v>169</v>
       </c>
-      <c r="B168" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C168" s="3" t="s">
+      <c r="B168" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2989,10 +2981,10 @@
       <c r="A169" t="s">
         <v>170</v>
       </c>
-      <c r="B169" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C169" s="3" t="s">
+      <c r="B169" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3000,10 +2992,10 @@
       <c r="A170" t="s">
         <v>171</v>
       </c>
-      <c r="B170" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C170" s="3" t="s">
+      <c r="B170" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3011,30 +3003,27 @@
       <c r="A171" t="s">
         <v>172</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="B171" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C171" s="2"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
+      <c r="A172" t="s">
         <v>173</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" t="s">
         <v>214</v>
       </c>
-      <c r="C172" s="4"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>174</v>
       </c>
-      <c r="B173" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C173" s="3" t="s">
+      <c r="B173" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3042,10 +3031,10 @@
       <c r="A174" t="s">
         <v>175</v>
       </c>
-      <c r="B174" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C174" s="3" t="s">
+      <c r="B174" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3053,21 +3042,19 @@
       <c r="A175" t="s">
         <v>176</v>
       </c>
-      <c r="B175" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="B175" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C175" s="2"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>177</v>
       </c>
-      <c r="B176" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C176" s="3" t="s">
+      <c r="B176" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3075,10 +3062,10 @@
       <c r="A177" t="s">
         <v>178</v>
       </c>
-      <c r="B177" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C177" s="3" t="s">
+      <c r="B177" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3086,10 +3073,10 @@
       <c r="A178" t="s">
         <v>179</v>
       </c>
-      <c r="B178" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C178" s="3" t="s">
+      <c r="B178" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3097,10 +3084,10 @@
       <c r="A179" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C179" s="3" t="s">
+      <c r="B179" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3108,10 +3095,10 @@
       <c r="A180" t="s">
         <v>181</v>
       </c>
-      <c r="B180" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C180" s="3" t="s">
+      <c r="B180" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3119,10 +3106,10 @@
       <c r="A181" t="s">
         <v>182</v>
       </c>
-      <c r="B181" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C181" s="3" t="s">
+      <c r="B181" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3130,21 +3117,21 @@
       <c r="A182" t="s">
         <v>183</v>
       </c>
-      <c r="B182" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C182" s="3" t="s">
+      <c r="B182" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="4" t="s">
+      <c r="A183" t="s">
         <v>184</v>
       </c>
-      <c r="B183" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C183" s="5" t="s">
+      <c r="B183" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3152,10 +3139,10 @@
       <c r="A184" t="s">
         <v>185</v>
       </c>
-      <c r="B184" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C184" s="3" t="s">
+      <c r="B184" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3163,10 +3150,10 @@
       <c r="A185" t="s">
         <v>186</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C185" s="3" t="s">
+      <c r="B185" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3174,10 +3161,10 @@
       <c r="A186" t="s">
         <v>187</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C186" s="3" t="s">
+      <c r="B186" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3185,10 +3172,10 @@
       <c r="A187" t="s">
         <v>188</v>
       </c>
-      <c r="B187" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C187" s="3" t="s">
+      <c r="B187" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3196,10 +3183,10 @@
       <c r="A188" t="s">
         <v>189</v>
       </c>
-      <c r="B188" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C188" s="3" t="s">
+      <c r="B188" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3207,21 +3194,19 @@
       <c r="A189" t="s">
         <v>190</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="B189" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C189" s="2"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>191</v>
       </c>
-      <c r="B190" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C190" s="3" t="s">
+      <c r="B190" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3229,10 +3214,10 @@
       <c r="A191" t="s">
         <v>192</v>
       </c>
-      <c r="B191" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C191" s="3" t="s">
+      <c r="B191" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3240,10 +3225,10 @@
       <c r="A192" t="s">
         <v>193</v>
       </c>
-      <c r="B192" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C192" s="3" t="s">
+      <c r="B192" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3251,10 +3236,10 @@
       <c r="A193" t="s">
         <v>194</v>
       </c>
-      <c r="B193" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C193" s="3" t="s">
+      <c r="B193" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3262,10 +3247,10 @@
       <c r="A194" t="s">
         <v>195</v>
       </c>
-      <c r="B194" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C194" s="3" t="s">
+      <c r="B194" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3273,32 +3258,28 @@
       <c r="A195" t="s">
         <v>196</v>
       </c>
-      <c r="B195" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="B195" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C195" s="2"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>197</v>
       </c>
-      <c r="B196" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="B196" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C196" s="2"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>198</v>
       </c>
-      <c r="B197" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C197" s="3" t="s">
+      <c r="B197" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3306,10 +3287,10 @@
       <c r="A198" t="s">
         <v>199</v>
       </c>
-      <c r="B198" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C198" s="3" t="s">
+      <c r="B198" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3317,10 +3298,10 @@
       <c r="A199" t="s">
         <v>200</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C199" s="3" t="s">
+      <c r="B199" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3328,10 +3309,10 @@
       <c r="A200" t="s">
         <v>201</v>
       </c>
-      <c r="B200" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C200" s="3" t="s">
+      <c r="B200" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3339,10 +3320,10 @@
       <c r="A201" t="s">
         <v>202</v>
       </c>
-      <c r="B201" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C201" s="3" t="s">
+      <c r="B201" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3350,43 +3331,37 @@
       <c r="A202" t="s">
         <v>203</v>
       </c>
-      <c r="B202" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="B202" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C202" s="2"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>204</v>
       </c>
-      <c r="B203" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="B203" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C203" s="2"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>205</v>
       </c>
-      <c r="B204" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="B204" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C204" s="2"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="4" t="s">
+      <c r="A205" t="s">
         <v>206</v>
       </c>
-      <c r="B205" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C205" s="5" t="s">
+      <c r="B205" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3394,30 +3369,29 @@
       <c r="A206" t="s">
         <v>207</v>
       </c>
-      <c r="B206" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C206" s="3" t="s">
+      <c r="B206" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="4" t="s">
+      <c r="A207" t="s">
         <v>208</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B207" t="s">
         <v>216</v>
       </c>
-      <c r="C207" s="4"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>209</v>
       </c>
-      <c r="B208" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C208" s="3" t="s">
+      <c r="B208" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>211</v>
       </c>
     </row>
